--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DFNRn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\matlab2comsol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994467F9-C7DD-4FA4-93E0-E26FC8842977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCD037A-D57C-4456-AFEF-1C49CBA2B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>run number</t>
+    <t>run_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
